--- a/data/trans_orig/P36B09_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B09_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7387B5D9-D626-4A23-AD3A-B932B9984EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BBA5B3-C37E-45E4-8213-A0B9B8A8B550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A3DBBBE-F173-45FD-A3AB-C05A1AA5F88E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4DDD1F2-D54A-4F84-9B85-B2DB922E82B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>69,46%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>68,19%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,28 +134,28 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,487 +167,481 @@
     <t>10,38%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>32,58%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
     <t>58,71%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>8,02%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>66,16%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>63,39%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F7C4E9-74BB-4D93-9D8E-9D92967021E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE84EF81-FE2C-45C4-A506-BDA52394472F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1619,7 +1613,7 @@
         <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -1628,13 +1622,13 @@
         <v>85625</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1643,13 @@
         <v>365757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>582</v>
@@ -1664,28 +1658,28 @@
         <v>396863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>941</v>
       </c>
       <c r="N13" s="7">
-        <v>762619</v>
+        <v>762620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1694,13 @@
         <v>150470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -1715,13 +1709,13 @@
         <v>140757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>349</v>
@@ -1730,13 +1724,13 @@
         <v>291227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,7 +1772,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1139470</v>
+        <v>1139471</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1792,7 +1786,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1804,13 +1798,13 @@
         <v>37431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -1819,13 +1813,13 @@
         <v>46111</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -1834,13 +1828,13 @@
         <v>83542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1849,13 @@
         <v>446134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>749</v>
@@ -1870,13 +1864,13 @@
         <v>474436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
         <v>1198</v>
@@ -1885,13 +1879,13 @@
         <v>920570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1900,13 @@
         <v>239504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>322</v>
@@ -1921,13 +1915,13 @@
         <v>225578</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>501</v>
@@ -1936,13 +1930,13 @@
         <v>465082</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1992,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2010,13 +2004,13 @@
         <v>46121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2025,13 +2019,13 @@
         <v>34416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2040,13 +2034,13 @@
         <v>80537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2055,13 @@
         <v>369392</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>656</v>
@@ -2076,13 +2070,13 @@
         <v>384456</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1072</v>
@@ -2091,13 +2085,13 @@
         <v>753848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2106,13 @@
         <v>182526</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -2127,13 +2121,13 @@
         <v>177491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -2142,13 +2136,13 @@
         <v>360017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,7 +2198,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2216,13 +2210,13 @@
         <v>40732</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -2246,13 +2240,13 @@
         <v>97988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2434,10 @@
         <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>589</v>
@@ -2452,13 +2446,13 @@
         <v>522887</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2467,13 @@
         <v>2169436</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>3454</v>
@@ -2488,13 +2482,13 @@
         <v>2382121</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>5662</v>
@@ -2503,13 +2497,13 @@
         <v>4551557</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2518,13 @@
         <v>959260</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>1540</v>
@@ -2539,13 +2533,13 @@
         <v>1146190</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>2471</v>
@@ -2554,13 +2548,13 @@
         <v>2105450</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2610,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
